--- a/DotNetExcel/bin/Debug/StarkBank.xlsx
+++ b/DotNetExcel/bin/Debug/StarkBank.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26827"/>
   <workbookPr codeName="EstaPastaDeTrabalho" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Stark - Admin\Documents\StarkBankExcel - Copia\StarkBankExcel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4872EBEE-1243-4B50-90A2-F65198542739}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03C0D953-7488-4053-9509-9498F8A425E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-3420" yWindow="-15015" windowWidth="15375" windowHeight="7785" firstSheet="2" activeTab="3" xr2:uid="{DD233689-9B57-48BF-9576-9FA43391D3F3}"/>
+    <workbookView xWindow="390" yWindow="390" windowWidth="15375" windowHeight="7785" activeTab="2" xr2:uid="{DD233689-9B57-48BF-9576-9FA43391D3F3}"/>
   </bookViews>
   <sheets>
     <sheet name="Principal" sheetId="1" r:id="rId1"/>
     <sheet name="Credentials" sheetId="2" state="hidden" r:id="rId2"/>
-    <sheet name="Cartão Extrato" sheetId="11" r:id="rId3"/>
-    <sheet name="Cartão Compras" sheetId="12" r:id="rId4"/>
+    <sheet name="Compras Cartão" sheetId="12" r:id="rId3"/>
+    <sheet name="Extrato Cartão" sheetId="11" r:id="rId4"/>
     <sheet name="Extrato" sheetId="7" r:id="rId5"/>
     <sheet name="Transferências Com Aprovação" sheetId="4" r:id="rId6"/>
     <sheet name="Consulta de Chaves Pix" sheetId="3" r:id="rId7"/>
@@ -55,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="82">
   <si>
     <t>Chave Pix</t>
   </si>
@@ -267,16 +267,40 @@
     <t>w</t>
   </si>
   <si>
-    <t>Cartão</t>
-  </si>
-  <si>
     <t>Estabelecimento</t>
   </si>
   <si>
     <t>Categoria</t>
   </si>
   <si>
-    <t>Cardholder</t>
+    <t>ID Compra</t>
+  </si>
+  <si>
+    <t>Descrição Compra</t>
+  </si>
+  <si>
+    <t>Anexo</t>
+  </si>
+  <si>
+    <t>Descrição Anexo</t>
+  </si>
+  <si>
+    <t>ID Cartão</t>
+  </si>
+  <si>
+    <t>ID Holder</t>
+  </si>
+  <si>
+    <t>ID Centro de Custo</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>Saldo</t>
+  </si>
+  <si>
+    <t>Cartão Corporativo</t>
   </si>
 </sst>
 </file>
@@ -466,10 +490,10 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -505,7 +529,7 @@
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="1F70BF05619C7F14D001A2031EA2288CEEF621"/>
+  <ax:ocxPr ax:name="Cookie" ax:value="2EF132486228D8243F428A6C298561D10E6622"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
@@ -518,6 +542,40 @@
 </file>
 
 <file path=xl/activeX/activeX10.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
+  <ax:ocxPr ax:name="Cookie" ax:value="19A5453E610F18142DA1BAA91D29A587ED2E11"/>
+  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
+  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="3757"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="1244"/>
+  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX11.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
+  <ax:ocxPr ax:name="Cookie" ax:value="1D58F8DCE161321493A19D8C10118F3363B411"/>
+  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
+  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="3757"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="1244"/>
+  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX12.xml><?xml version="1.0" encoding="utf-8"?>
 <ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
@@ -534,7 +592,7 @@
 </ax:ocx>
 </file>
 
-<file path=xl/activeX/activeX11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/activeX/activeX13.xml><?xml version="1.0" encoding="utf-8"?>
 <ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
@@ -551,7 +609,92 @@
 </ax:ocx>
 </file>
 
-<file path=xl/activeX/activeX12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/activeX/activeX14.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
+  <ax:ocxPr ax:name="Cookie" ax:value="80815DC5B82C3B8498489E26894C5C52875E28"/>
+  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
+  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="3784"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="1535"/>
+  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX15.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
+  <ax:ocxPr ax:name="Cookie" ax:value="71F4FF3617034374D487A4537B51302A0C89B7"/>
+  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
+  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="3810"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="1799"/>
+  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX16.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
+  <ax:ocxPr ax:name="Cookie" ax:value="690DE6C82662BD648A469A3C645736EF297746"/>
+  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
+  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="3810"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="1799"/>
+  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX17.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
+  <ax:ocxPr ax:name="Cookie" ax:value="5FE4E9EDE5117D54C395AB0B52D849B4179075"/>
+  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
+  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="3810"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="1799"/>
+  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX18.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
+  <ax:ocxPr ax:name="Cookie" ax:value="43935BDA7439194471449D234CFD527D9886B4"/>
+  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
+  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="3810"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="1508"/>
+  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX19.xml><?xml version="1.0" encoding="utf-8"?>
 <ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
@@ -568,7 +711,24 @@
 </ax:ocx>
 </file>
 
-<file path=xl/activeX/activeX13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/activeX/activeX2.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
+  <ax:ocxPr ax:name="Cookie" ax:value="23FDAD7A329F60245422A56B22EA1482F84402"/>
+  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
+  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="3757"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="1244"/>
+  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX20.xml><?xml version="1.0" encoding="utf-8"?>
 <ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
@@ -585,7 +745,7 @@
 </ax:ocx>
 </file>
 
-<file path=xl/activeX/activeX14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/activeX/activeX21.xml><?xml version="1.0" encoding="utf-8"?>
 <ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
@@ -602,12 +762,12 @@
 </ax:ocx>
 </file>
 
-<file path=xl/activeX/activeX15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/activeX/activeX22.xml><?xml version="1.0" encoding="utf-8"?>
 <ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="2630AFF6E240FB248662B7CB2817901B67BB82"/>
+  <ax:ocxPr ax:name="Cookie" ax:value="75E9B6F4C78CB974E3679B0970BD37E29B8E77"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
@@ -619,92 +779,7 @@
 </ax:ocx>
 </file>
 
-<file path=xl/activeX/activeX16.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="71F4FF3617034374D487A4537B51302A0C89B7"/>
-  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
-  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="3228"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="1535"/>
-  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX17.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="690DE6C82662BD648A469A3C645736EF297746"/>
-  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
-  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="3228"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="1535"/>
-  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX18.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="5FE4E9EDE5117D54C395AB0B52D849B4179075"/>
-  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
-  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="3228"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="1535"/>
-  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX19.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="43935BDA7439194471449D234CFD527D9886B4"/>
-  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
-  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="3228"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="1455"/>
-  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX2.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="1626B229C1652514446181B314A00A77AF6681"/>
-  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
-  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="3757"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="1244"/>
-  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX20.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/activeX/activeX23.xml><?xml version="1.0" encoding="utf-8"?>
 <ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
@@ -721,7 +796,7 @@
 </ax:ocx>
 </file>
 
-<file path=xl/activeX/activeX21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/activeX/activeX24.xml><?xml version="1.0" encoding="utf-8"?>
 <ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
@@ -738,7 +813,7 @@
 </ax:ocx>
 </file>
 
-<file path=xl/activeX/activeX22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/activeX/activeX25.xml><?xml version="1.0" encoding="utf-8"?>
 <ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
@@ -755,7 +830,7 @@
 </ax:ocx>
 </file>
 
-<file path=xl/activeX/activeX23.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/activeX/activeX26.xml><?xml version="1.0" encoding="utf-8"?>
 <ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
@@ -772,7 +847,7 @@
 </ax:ocx>
 </file>
 
-<file path=xl/activeX/activeX24.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/activeX/activeX27.xml><?xml version="1.0" encoding="utf-8"?>
 <ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
@@ -789,7 +864,7 @@
 </ax:ocx>
 </file>
 
-<file path=xl/activeX/activeX25.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/activeX/activeX28.xml><?xml version="1.0" encoding="utf-8"?>
 <ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
@@ -806,7 +881,7 @@
 </ax:ocx>
 </file>
 
-<file path=xl/activeX/activeX26.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/activeX/activeX29.xml><?xml version="1.0" encoding="utf-8"?>
 <ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
@@ -823,7 +898,24 @@
 </ax:ocx>
 </file>
 
-<file path=xl/activeX/activeX27.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/activeX/activeX3.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
+  <ax:ocxPr ax:name="Cookie" ax:value="1F70BF05619C7F14D001A2031EA2288CEEF621"/>
+  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
+  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="3757"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="1244"/>
+  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX30.xml><?xml version="1.0" encoding="utf-8"?>
 <ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
@@ -840,7 +932,7 @@
 </ax:ocx>
 </file>
 
-<file path=xl/activeX/activeX28.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/activeX/activeX31.xml><?xml version="1.0" encoding="utf-8"?>
 <ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
@@ -857,7 +949,7 @@
 </ax:ocx>
 </file>
 
-<file path=xl/activeX/activeX29.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/activeX/activeX32.xml><?xml version="1.0" encoding="utf-8"?>
 <ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
@@ -874,24 +966,7 @@
 </ax:ocx>
 </file>
 
-<file path=xl/activeX/activeX3.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="1DB344D2F14249140061BD5D11E614111405C1"/>
-  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
-  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="3757"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="1244"/>
-  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX30.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/activeX/activeX33.xml><?xml version="1.0" encoding="utf-8"?>
 <ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
@@ -908,7 +983,7 @@
 </ax:ocx>
 </file>
 
-<file path=xl/activeX/activeX31.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/activeX/activeX34.xml><?xml version="1.0" encoding="utf-8"?>
 <ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
@@ -925,7 +1000,7 @@
 </ax:ocx>
 </file>
 
-<file path=xl/activeX/activeX32.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/activeX/activeX35.xml><?xml version="1.0" encoding="utf-8"?>
 <ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
@@ -942,7 +1017,7 @@
 </ax:ocx>
 </file>
 
-<file path=xl/activeX/activeX33.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/activeX/activeX36.xml><?xml version="1.0" encoding="utf-8"?>
 <ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
@@ -959,7 +1034,7 @@
 </ax:ocx>
 </file>
 
-<file path=xl/activeX/activeX34.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/activeX/activeX37.xml><?xml version="1.0" encoding="utf-8"?>
 <ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
@@ -976,7 +1051,7 @@
 </ax:ocx>
 </file>
 
-<file path=xl/activeX/activeX35.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/activeX/activeX38.xml><?xml version="1.0" encoding="utf-8"?>
 <ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
@@ -993,7 +1068,7 @@
 </ax:ocx>
 </file>
 
-<file path=xl/activeX/activeX36.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/activeX/activeX39.xml><?xml version="1.0" encoding="utf-8"?>
 <ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
@@ -1010,7 +1085,24 @@
 </ax:ocx>
 </file>
 
-<file path=xl/activeX/activeX37.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/activeX/activeX4.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
+  <ax:ocxPr ax:name="Cookie" ax:value="1626B229C1652514446181B314A00A77AF6681"/>
+  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
+  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="3757"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="1217"/>
+  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX40.xml><?xml version="1.0" encoding="utf-8"?>
 <ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
@@ -1027,7 +1119,7 @@
 </ax:ocx>
 </file>
 
-<file path=xl/activeX/activeX38.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/activeX/activeX41.xml><?xml version="1.0" encoding="utf-8"?>
 <ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
@@ -1044,7 +1136,7 @@
 </ax:ocx>
 </file>
 
-<file path=xl/activeX/activeX39.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/activeX/activeX42.xml><?xml version="1.0" encoding="utf-8"?>
 <ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
@@ -1061,7 +1153,313 @@
 </ax:ocx>
 </file>
 
-<file path=xl/activeX/activeX4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/activeX/activeX43.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
+  <ax:ocxPr ax:name="Cookie" ax:value="19726D3BD1AD01142191B2C41B5B2D13E650B1"/>
+  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
+  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="3228"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="1535"/>
+  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX44.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
+  <ax:ocxPr ax:name="Cookie" ax:value="207D2713820AB8246622A7CD26A57A9DCA2162"/>
+  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
+  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="3228"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="1535"/>
+  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX45.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
+  <ax:ocxPr ax:name="Cookie" ax:value="32381B0E43363B340003842439CB6D4833D8F3"/>
+  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
+  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="3228"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="1535"/>
+  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX46.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
+  <ax:ocxPr ax:name="Cookie" ax:value="42576A9D548EA54490F4BA2045852D9EEA0264"/>
+  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
+  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="3228"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="1535"/>
+  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX47.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
+  <ax:ocxPr ax:name="Cookie" ax:value="5B4A34D975B853543985A7E75523690B60EC35"/>
+  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
+  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="3228"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="1535"/>
+  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX48.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
+  <ax:ocxPr ax:name="Cookie" ax:value="1441CBD291E7921466418469122C7CFF2CD931"/>
+  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
+  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="3228"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="1535"/>
+  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX49.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
+  <ax:ocxPr ax:name="Cookie" ax:value="2DE4C20F929D4D245012850329872D57BE1542"/>
+  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
+  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="3228"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="1535"/>
+  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX5.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
+  <ax:ocxPr ax:name="Cookie" ax:value="1DB344D2F14249140061BD5D11E614111405C1"/>
+  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
+  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="3757"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="1217"/>
+  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX50.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
+  <ax:ocxPr ax:name="Cookie" ax:value="3C148BBC83328034CB4383F53575DFC2E2D673"/>
+  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
+  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="3228"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="1535"/>
+  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX51.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
+  <ax:ocxPr ax:name="Cookie" ax:value="482B56B2D4F09144EA9495AD4E1391B3ADA544"/>
+  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
+  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="3228"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="1535"/>
+  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX52.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
+  <ax:ocxPr ax:name="Cookie" ax:value="59212E71A5367254941595AB5F075939365595"/>
+  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
+  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="3228"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="1535"/>
+  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX53.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
+  <ax:ocxPr ax:name="Cookie" ax:value="51A95A66553942547D759A7153A00908FCA885"/>
+  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
+  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="3228"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="1535"/>
+  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX54.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
+  <ax:ocxPr ax:name="Cookie" ax:value="4E23FE0EC4C93C4470948DA849AEEC73F9C744"/>
+  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
+  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="3228"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="1535"/>
+  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX55.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
+  <ax:ocxPr ax:name="Cookie" ax:value="39558BA7531D2E3412138D1638E54A9A444C63"/>
+  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
+  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="3228"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="1535"/>
+  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX56.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
+  <ax:ocxPr ax:name="Cookie" ax:value="232EEE2C927B21244D728DA228DC1AAB22C9E2"/>
+  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
+  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="3228"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="1535"/>
+  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX57.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
+  <ax:ocxPr ax:name="Cookie" ax:value="1B7A977A61ADF41453E1BBBE1183429619DB11"/>
+  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
+  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="3281"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="1429"/>
+  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX58.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
+  <ax:ocxPr ax:name="Cookie" ax:value="1F6AA8BD81815014DA61A5D71870FA81614161"/>
+  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
+  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="3175"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="1482"/>
+  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX59.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
+  <ax:ocxPr ax:name="Cookie" ax:value="2596667A2285C4241122B3CF25CD7B218043C2"/>
+  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
+  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="3228"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="1535"/>
+  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX6.xml><?xml version="1.0" encoding="utf-8"?>
 <ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
@@ -1078,12 +1476,12 @@
 </ax:ocx>
 </file>
 
-<file path=xl/activeX/activeX40.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/activeX/activeX60.xml><?xml version="1.0" encoding="utf-8"?>
 <ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="19726D3BD1AD01142191B2C41B5B2D13E650B1"/>
+  <ax:ocxPr ax:name="Cookie" ax:value="3980FC20730620345FE3A45431A52DCB072F13"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
@@ -1095,12 +1493,12 @@
 </ax:ocx>
 </file>
 
-<file path=xl/activeX/activeX41.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/activeX/activeX61.xml><?xml version="1.0" encoding="utf-8"?>
 <ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="207D2713820AB8246622A7CD26A57A9DCA2162"/>
+  <ax:ocxPr ax:name="Cookie" ax:value="423CD9C0343555445FB48C9D4CF7D65D1F3284"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
@@ -1112,12 +1510,12 @@
 </ax:ocx>
 </file>
 
-<file path=xl/activeX/activeX42.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/activeX/activeX62.xml><?xml version="1.0" encoding="utf-8"?>
 <ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="32381B0E43363B340003842439CB6D4833D8F3"/>
+  <ax:ocxPr ax:name="Cookie" ax:value="560AC6FB15F17754F6558A0F58035E0AF7ED85"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
@@ -1129,126 +1527,7 @@
 </ax:ocx>
 </file>
 
-<file path=xl/activeX/activeX43.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="42576A9D548EA54490F4BA2045852D9EEA0264"/>
-  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
-  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="3228"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="1535"/>
-  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX44.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="5B4A34D975B853543985A7E75523690B60EC35"/>
-  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
-  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="3228"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="1535"/>
-  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX45.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="1441CBD291E7921466418469122C7CFF2CD931"/>
-  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
-  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="3228"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="1535"/>
-  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX46.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="2DE4C20F929D4D245012850329872D57BE1542"/>
-  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
-  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="3228"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="1535"/>
-  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX47.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="3C148BBC83328034CB4383F53575DFC2E2D673"/>
-  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
-  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="3228"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="1535"/>
-  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX48.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="482B56B2D4F09144EA9495AD4E1391B3ADA544"/>
-  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
-  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="3228"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="1535"/>
-  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX49.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="59212E71A5367254941595AB5F075939365595"/>
-  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
-  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="3228"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="1535"/>
-  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/activeX/activeX7.xml><?xml version="1.0" encoding="utf-8"?>
 <ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
@@ -1265,177 +1544,7 @@
 </ax:ocx>
 </file>
 
-<file path=xl/activeX/activeX50.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="51A95A66553942547D759A7153A00908FCA885"/>
-  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
-  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="3228"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="1535"/>
-  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX51.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="4E23FE0EC4C93C4470948DA849AEEC73F9C744"/>
-  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
-  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="3228"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="1535"/>
-  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX52.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="39558BA7531D2E3412138D1638E54A9A444C63"/>
-  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
-  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="3228"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="1535"/>
-  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX53.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="232EEE2C927B21244D728DA228DC1AAB22C9E2"/>
-  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
-  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="3228"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="1535"/>
-  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX54.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="1B7A977A61ADF41453E1BBBE1183429619DB11"/>
-  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
-  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="3281"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="1429"/>
-  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX55.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="1F6AA8BD81815014DA61A5D71870FA81614161"/>
-  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
-  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="3175"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="1482"/>
-  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX56.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="2596667A2285C4241122B3CF25CD7B218043C2"/>
-  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
-  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="3228"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="1535"/>
-  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX57.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="3980FC20730620345FE3A45431A52DCB072F13"/>
-  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
-  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="3228"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="1535"/>
-  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX58.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="423CD9C0343555445FB48C9D4CF7D65D1F3284"/>
-  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
-  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="3228"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="1535"/>
-  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX59.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="560AC6FB15F17754F6558A0F58035E0AF7ED85"/>
-  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
-  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="3228"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="1535"/>
-  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/activeX/activeX8.xml><?xml version="1.0" encoding="utf-8"?>
 <ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
@@ -1452,46 +1561,12 @@
 </ax:ocx>
 </file>
 
-<file path=xl/activeX/activeX7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/activeX/activeX9.xml><?xml version="1.0" encoding="utf-8"?>
 <ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
   <ax:ocxPr ax:name="Cookie" ax:value="17053D61D1F15A1482019B2C1A4E6D57E3A971"/>
-  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
-  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="3757"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="1244"/>
-  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX8.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="19A5453E610F18142DA1BAA91D29A587ED2E11"/>
-  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
-  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="3757"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="1244"/>
-  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX9.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="1D58F8DCE161321493A19D8C10118F3363B411"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
@@ -1757,16 +1832,16 @@
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
-          <xdr:col>10</xdr:col>
-          <xdr:colOff>171450</xdr:colOff>
+          <xdr:col>7</xdr:col>
+          <xdr:colOff>295275</xdr:colOff>
           <xdr:row>14</xdr:row>
-          <xdr:rowOff>66675</xdr:rowOff>
+          <xdr:rowOff>85725</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>12</xdr:col>
-          <xdr:colOff>304800</xdr:colOff>
+          <xdr:col>9</xdr:col>
+          <xdr:colOff>428625</xdr:colOff>
           <xdr:row>16</xdr:row>
-          <xdr:rowOff>133350</xdr:rowOff>
+          <xdr:rowOff>152400</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1777,130 +1852,6 @@
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
                   <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000E040000}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:solidFill>
-              <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:extLst>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="9525">
-                  <a:solidFill>
-                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-                  </a:solidFill>
-                  <a:miter lim="800000"/>
-                  <a:headEnd/>
-                  <a:tailEnd/>
-                </a14:hiddenLine>
-              </a:ext>
-            </a:extLst>
-          </xdr:spPr>
-        </xdr:sp>
-        <xdr:clientData/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor editAs="oneCell">
-        <xdr:from>
-          <xdr:col>10</xdr:col>
-          <xdr:colOff>180975</xdr:colOff>
-          <xdr:row>18</xdr:row>
-          <xdr:rowOff>76200</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>12</xdr:col>
-          <xdr:colOff>314325</xdr:colOff>
-          <xdr:row>20</xdr:row>
-          <xdr:rowOff>142875</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="1039" name="_ActiveXWrapper6" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s1039"/>
-                </a:ext>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000F040000}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:solidFill>
-              <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:extLst>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="9525">
-                  <a:solidFill>
-                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-                  </a:solidFill>
-                  <a:miter lim="800000"/>
-                  <a:headEnd/>
-                  <a:tailEnd/>
-                </a14:hiddenLine>
-              </a:ext>
-            </a:extLst>
-          </xdr:spPr>
-        </xdr:sp>
-        <xdr:clientData/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor editAs="oneCell">
-        <xdr:from>
-          <xdr:col>12</xdr:col>
-          <xdr:colOff>523875</xdr:colOff>
-          <xdr:row>18</xdr:row>
-          <xdr:rowOff>76200</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>15</xdr:col>
-          <xdr:colOff>47625</xdr:colOff>
-          <xdr:row>20</xdr:row>
-          <xdr:rowOff>142875</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="1040" name="_ActiveXWrapper7" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s1040"/>
-                </a:ext>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000010040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1944,25 +1895,25 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>7</xdr:col>
-          <xdr:colOff>561975</xdr:colOff>
-          <xdr:row>3</xdr:row>
-          <xdr:rowOff>171450</xdr:rowOff>
+          <xdr:colOff>304800</xdr:colOff>
+          <xdr:row>18</xdr:row>
+          <xdr:rowOff>85725</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>10</xdr:col>
-          <xdr:colOff>85725</xdr:colOff>
-          <xdr:row>6</xdr:row>
-          <xdr:rowOff>47625</xdr:rowOff>
+          <xdr:col>9</xdr:col>
+          <xdr:colOff>438150</xdr:colOff>
+          <xdr:row>20</xdr:row>
+          <xdr:rowOff>142875</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="1041" name="_ActiveXWrapper8" hidden="1">
+            <xdr:cNvPr id="1039" name="_ActiveXWrapper6" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s1041"/>
+                  <a14:compatExt spid="_x0000_s1039"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000011040000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000F040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -2005,16 +1956,140 @@
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
-          <xdr:col>10</xdr:col>
-          <xdr:colOff>171450</xdr:colOff>
-          <xdr:row>10</xdr:row>
-          <xdr:rowOff>38100</xdr:rowOff>
+          <xdr:col>9</xdr:col>
+          <xdr:colOff>542925</xdr:colOff>
+          <xdr:row>18</xdr:row>
+          <xdr:rowOff>85725</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>12</xdr:col>
-          <xdr:colOff>304800</xdr:colOff>
+          <xdr:colOff>66675</xdr:colOff>
+          <xdr:row>20</xdr:row>
+          <xdr:rowOff>142875</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1040" name="_ActiveXWrapper7" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1040"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000010040000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>7</xdr:col>
+          <xdr:colOff>276225</xdr:colOff>
+          <xdr:row>3</xdr:row>
+          <xdr:rowOff>180975</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>9</xdr:col>
+          <xdr:colOff>409575</xdr:colOff>
+          <xdr:row>6</xdr:row>
+          <xdr:rowOff>57150</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1041" name="_ActiveXWrapper8" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1041"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000011040000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>7</xdr:col>
+          <xdr:colOff>295275</xdr:colOff>
+          <xdr:row>10</xdr:row>
+          <xdr:rowOff>47625</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>9</xdr:col>
+          <xdr:colOff>428625</xdr:colOff>
           <xdr:row>12</xdr:row>
-          <xdr:rowOff>104775</xdr:rowOff>
+          <xdr:rowOff>114300</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2187,6 +2262,130 @@
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>14</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>10</xdr:row>
+          <xdr:rowOff>66675</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>16</xdr:col>
+          <xdr:colOff>133350</xdr:colOff>
+          <xdr:row>12</xdr:row>
+          <xdr:rowOff>133350</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1045" name="_ActiveXWrapper12" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1045"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000015040000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>13</xdr:col>
+          <xdr:colOff>600075</xdr:colOff>
+          <xdr:row>14</xdr:row>
+          <xdr:rowOff>57150</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>16</xdr:col>
+          <xdr:colOff>123825</xdr:colOff>
+          <xdr:row>16</xdr:row>
+          <xdr:rowOff>123825</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1046" name="_ActiveXWrapper13" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1046"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000016040000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
 </xdr:wsDr>
 </file>
 
@@ -2826,26 +3025,88 @@
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
-          <xdr:col>2</xdr:col>
-          <xdr:colOff>933450</xdr:colOff>
+          <xdr:col>3</xdr:col>
+          <xdr:colOff>990600</xdr:colOff>
           <xdr:row>4</xdr:row>
-          <xdr:rowOff>76200</xdr:rowOff>
+          <xdr:rowOff>104775</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>3</xdr:col>
-          <xdr:colOff>809625</xdr:colOff>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>733425</xdr:colOff>
           <xdr:row>7</xdr:row>
+          <xdr:rowOff>76200</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="37892" name="_ActiveXWrapper1" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s37892"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000004940000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>838200</xdr:colOff>
+          <xdr:row>0</xdr:row>
+          <xdr:rowOff>171450</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>5</xdr:col>
+          <xdr:colOff>657225</xdr:colOff>
+          <xdr:row>4</xdr:row>
           <xdr:rowOff>57150</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="28674" name="_ActiveXWrapper2" hidden="1">
+            <xdr:cNvPr id="37893" name="_ActiveXWrapper2" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s28674"/>
+                  <a14:compatExt spid="_x0000_s37893"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002700000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000005940000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -2889,15 +3150,206 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>3</xdr:col>
-          <xdr:colOff>895350</xdr:colOff>
-          <xdr:row>1</xdr:row>
-          <xdr:rowOff>38100</xdr:rowOff>
+          <xdr:colOff>990600</xdr:colOff>
+          <xdr:row>0</xdr:row>
+          <xdr:rowOff>171450</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>733425</xdr:colOff>
+          <xdr:row>4</xdr:row>
+          <xdr:rowOff>57150</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="37894" name="_ActiveXWrapper3" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s37894"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000006940000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>5</xdr:col>
+          <xdr:colOff>781050</xdr:colOff>
+          <xdr:row>0</xdr:row>
+          <xdr:rowOff>180975</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>7</xdr:col>
+          <xdr:colOff>209550</xdr:colOff>
+          <xdr:row>4</xdr:row>
+          <xdr:rowOff>66675</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="37895" name="_ActiveXWrapper4" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s37895"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000007940000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>838200</xdr:colOff>
+          <xdr:row>4</xdr:row>
+          <xdr:rowOff>95250</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>5</xdr:col>
-          <xdr:colOff>47625</xdr:colOff>
+          <xdr:colOff>647700</xdr:colOff>
+          <xdr:row>7</xdr:row>
+          <xdr:rowOff>76200</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="37896" name="_ActiveXWrapper5" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s37896"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000008940000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>228600</xdr:colOff>
+          <xdr:row>1</xdr:row>
+          <xdr:rowOff>47625</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>5</xdr:col>
+          <xdr:colOff>333375</xdr:colOff>
           <xdr:row>4</xdr:row>
-          <xdr:rowOff>19050</xdr:rowOff>
+          <xdr:rowOff>28575</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2907,7 +3359,7 @@
                   <a14:compatExt spid="_x0000_s28676"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{217C2E78-6E91-2E6E-FE59-84DBF8BF27CF}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000004700000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -2951,15 +3403,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>933450</xdr:colOff>
+          <xdr:colOff>1200150</xdr:colOff>
           <xdr:row>1</xdr:row>
-          <xdr:rowOff>38100</xdr:rowOff>
+          <xdr:rowOff>57150</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>3</xdr:col>
-          <xdr:colOff>809625</xdr:colOff>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>123825</xdr:colOff>
           <xdr:row>4</xdr:row>
-          <xdr:rowOff>19050</xdr:rowOff>
+          <xdr:rowOff>38100</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2969,7 +3421,7 @@
                   <a14:compatExt spid="_x0000_s28677"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B8443F72-B52A-8969-B450-C789EBC27B91}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000005700000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -3013,13 +3465,13 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>5</xdr:col>
-          <xdr:colOff>133350</xdr:colOff>
+          <xdr:colOff>409575</xdr:colOff>
           <xdr:row>1</xdr:row>
           <xdr:rowOff>38100</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>6</xdr:col>
-          <xdr:colOff>200025</xdr:colOff>
+          <xdr:colOff>476250</xdr:colOff>
           <xdr:row>4</xdr:row>
           <xdr:rowOff>19050</xdr:rowOff>
         </xdr:to>
@@ -3031,136 +3483,7 @@
                   <a14:compatExt spid="_x0000_s28678"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{56531707-4038-8E22-CA2D-B72545C1FE48}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:solidFill>
-              <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:extLst>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="9525">
-                  <a:solidFill>
-                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-                  </a:solidFill>
-                  <a:miter lim="800000"/>
-                  <a:headEnd/>
-                  <a:tailEnd/>
-                </a14:hiddenLine>
-              </a:ext>
-            </a:extLst>
-          </xdr:spPr>
-        </xdr:sp>
-        <xdr:clientData/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor editAs="oneCell">
-        <xdr:from>
-          <xdr:col>2</xdr:col>
-          <xdr:colOff>1219199</xdr:colOff>
-          <xdr:row>4</xdr:row>
-          <xdr:rowOff>38099</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>4</xdr:col>
-          <xdr:colOff>104775</xdr:colOff>
-          <xdr:row>6</xdr:row>
-          <xdr:rowOff>180974</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="37892" name="_ActiveXWrapper1" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s37892"/>
-                </a:ext>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DF61B309-2934-AE5C-ECE3-8989C7DD883A}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:solidFill>
-              <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:extLst>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="9525">
-                  <a:solidFill>
-                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-                  </a:solidFill>
-                  <a:miter lim="800000"/>
-                  <a:headEnd/>
-                  <a:tailEnd/>
-                </a14:hiddenLine>
-              </a:ext>
-            </a:extLst>
-          </xdr:spPr>
-        </xdr:sp>
-        <xdr:clientData/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor editAs="oneCell">
-        <xdr:from>
-          <xdr:col>4</xdr:col>
-          <xdr:colOff>190500</xdr:colOff>
-          <xdr:row>0</xdr:row>
-          <xdr:rowOff>152400</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>5</xdr:col>
-          <xdr:colOff>371475</xdr:colOff>
-          <xdr:row>3</xdr:row>
-          <xdr:rowOff>133350</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="37893" name="_ActiveXWrapper2" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s37893"/>
-                </a:ext>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C75ADD35-5F7C-9EF8-2518-4C765504D2E0}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000006700000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -3204,87 +3527,25 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>1219200</xdr:colOff>
-          <xdr:row>0</xdr:row>
-          <xdr:rowOff>152400</xdr:rowOff>
+          <xdr:colOff>1190625</xdr:colOff>
+          <xdr:row>4</xdr:row>
+          <xdr:rowOff>123825</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>104775</xdr:colOff>
-          <xdr:row>3</xdr:row>
-          <xdr:rowOff>133350</xdr:rowOff>
+          <xdr:colOff>114300</xdr:colOff>
+          <xdr:row>7</xdr:row>
+          <xdr:rowOff>104775</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="37894" name="_ActiveXWrapper3" hidden="1">
+            <xdr:cNvPr id="28679" name="_ActiveXWrapper11" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s37894"/>
+                  <a14:compatExt spid="_x0000_s28679"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B3C705F9-AD4C-EC8D-1C56-5AB1B4EF4780}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:solidFill>
-              <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:extLst>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="9525">
-                  <a:solidFill>
-                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-                  </a:solidFill>
-                  <a:miter lim="800000"/>
-                  <a:headEnd/>
-                  <a:tailEnd/>
-                </a14:hiddenLine>
-              </a:ext>
-            </a:extLst>
-          </xdr:spPr>
-        </xdr:sp>
-        <xdr:clientData/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor editAs="oneCell">
-        <xdr:from>
-          <xdr:col>5</xdr:col>
-          <xdr:colOff>457200</xdr:colOff>
-          <xdr:row>0</xdr:row>
-          <xdr:rowOff>152400</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>6</xdr:col>
-          <xdr:colOff>533400</xdr:colOff>
-          <xdr:row>3</xdr:row>
-          <xdr:rowOff>133350</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="37895" name="_ActiveXWrapper4" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s37895"/>
-                </a:ext>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{08496EE4-5ABB-6DB5-FB58-A596328A51E7}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000007700000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -5517,7 +5778,7 @@
   <dimension ref="A1:T21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K11" sqref="A10:T11"/>
+      <selection activeCell="S7" sqref="S7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" zeroHeight="1" x14ac:dyDescent="0.25"/>
@@ -5527,28 +5788,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="28" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
-      <c r="F1" s="27"/>
-      <c r="G1" s="27"/>
-      <c r="H1" s="27"/>
-      <c r="I1" s="27"/>
-      <c r="J1" s="27"/>
-      <c r="K1" s="27"/>
-      <c r="L1" s="27"/>
-      <c r="M1" s="27"/>
-      <c r="N1" s="27"/>
-      <c r="O1" s="27"/>
-      <c r="P1" s="27"/>
-      <c r="Q1" s="27"/>
-      <c r="R1" s="27"/>
-      <c r="S1" s="27"/>
-      <c r="T1" s="27"/>
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="28"/>
+      <c r="G1" s="28"/>
+      <c r="H1" s="28"/>
+      <c r="I1" s="28"/>
+      <c r="J1" s="28"/>
+      <c r="K1" s="28"/>
+      <c r="L1" s="28"/>
+      <c r="M1" s="28"/>
+      <c r="N1" s="28"/>
+      <c r="O1" s="28"/>
+      <c r="P1" s="28"/>
+      <c r="Q1" s="28"/>
+      <c r="R1" s="28"/>
+      <c r="S1" s="28"/>
+      <c r="T1" s="28"/>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" s="17" t="s">
@@ -5738,31 +5999,33 @@
       <c r="S9" s="17"/>
       <c r="T9" s="17"/>
     </row>
-    <row r="10" spans="1:20" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A10" s="28" t="s">
+    <row r="10" spans="1:20" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="27" t="s">
         <v>34</v>
       </c>
-      <c r="B10" s="28"/>
-      <c r="C10" s="28"/>
-      <c r="D10" s="28"/>
-      <c r="E10" s="28"/>
-      <c r="F10" s="28"/>
-      <c r="G10" s="28"/>
-      <c r="H10" s="28"/>
-      <c r="I10" s="28"/>
-      <c r="J10" s="28"/>
-      <c r="K10" s="28" t="s">
+      <c r="B10" s="27"/>
+      <c r="C10" s="27"/>
+      <c r="D10" s="27"/>
+      <c r="E10" s="27"/>
+      <c r="F10" s="27"/>
+      <c r="G10" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="L10" s="28"/>
-      <c r="M10" s="28"/>
-      <c r="N10" s="28"/>
-      <c r="O10" s="28"/>
-      <c r="P10" s="28"/>
-      <c r="Q10" s="28"/>
-      <c r="R10" s="28"/>
-      <c r="S10" s="28"/>
-      <c r="T10" s="28"/>
+      <c r="H10" s="27"/>
+      <c r="I10" s="27"/>
+      <c r="J10" s="27"/>
+      <c r="K10" s="27"/>
+      <c r="L10" s="27"/>
+      <c r="M10" s="27"/>
+      <c r="N10" s="27" t="s">
+        <v>81</v>
+      </c>
+      <c r="O10" s="27"/>
+      <c r="P10" s="27"/>
+      <c r="Q10" s="27"/>
+      <c r="R10" s="27"/>
+      <c r="S10" s="27"/>
+      <c r="T10" s="27"/>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A11" s="17"/>
@@ -5831,30 +6094,30 @@
       <c r="T13" s="17"/>
     </row>
     <row r="14" spans="1:20" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A14" s="28" t="s">
+      <c r="A14" s="27" t="s">
         <v>68</v>
       </c>
-      <c r="B14" s="28"/>
-      <c r="C14" s="28"/>
-      <c r="D14" s="28"/>
-      <c r="E14" s="28"/>
-      <c r="F14" s="28"/>
-      <c r="G14" s="28"/>
-      <c r="H14" s="28"/>
-      <c r="I14" s="28"/>
-      <c r="J14" s="28"/>
-      <c r="K14" s="28" t="s">
+      <c r="B14" s="27"/>
+      <c r="C14" s="27"/>
+      <c r="D14" s="27"/>
+      <c r="E14" s="27"/>
+      <c r="F14" s="27"/>
+      <c r="G14" s="27" t="s">
         <v>36</v>
       </c>
-      <c r="L14" s="28"/>
-      <c r="M14" s="28"/>
-      <c r="N14" s="28"/>
-      <c r="O14" s="28"/>
-      <c r="P14" s="28"/>
-      <c r="Q14" s="28"/>
-      <c r="R14" s="28"/>
-      <c r="S14" s="28"/>
-      <c r="T14" s="28"/>
+      <c r="H14" s="27"/>
+      <c r="I14" s="27"/>
+      <c r="J14" s="27"/>
+      <c r="K14" s="27"/>
+      <c r="L14" s="27"/>
+      <c r="M14" s="27"/>
+      <c r="N14" s="27"/>
+      <c r="O14" s="27"/>
+      <c r="P14" s="27"/>
+      <c r="Q14" s="27"/>
+      <c r="R14" s="27"/>
+      <c r="S14" s="27"/>
+      <c r="T14" s="27"/>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A15" s="17"/>
@@ -5923,30 +6186,30 @@
       <c r="T17" s="17"/>
     </row>
     <row r="18" spans="1:20" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A18" s="28" t="s">
+      <c r="A18" s="27" t="s">
         <v>35</v>
       </c>
-      <c r="B18" s="28"/>
-      <c r="C18" s="28"/>
-      <c r="D18" s="28"/>
-      <c r="E18" s="28"/>
-      <c r="F18" s="28"/>
-      <c r="G18" s="28"/>
-      <c r="H18" s="28"/>
-      <c r="I18" s="28"/>
-      <c r="J18" s="28"/>
-      <c r="K18" s="28" t="s">
+      <c r="B18" s="27"/>
+      <c r="C18" s="27"/>
+      <c r="D18" s="27"/>
+      <c r="E18" s="27"/>
+      <c r="F18" s="27"/>
+      <c r="G18" s="27" t="s">
         <v>37</v>
       </c>
-      <c r="L18" s="28"/>
-      <c r="M18" s="28"/>
-      <c r="N18" s="28"/>
-      <c r="O18" s="28"/>
-      <c r="P18" s="28"/>
-      <c r="Q18" s="28"/>
-      <c r="R18" s="28"/>
-      <c r="S18" s="28"/>
-      <c r="T18" s="28"/>
+      <c r="H18" s="27"/>
+      <c r="I18" s="27"/>
+      <c r="J18" s="27"/>
+      <c r="K18" s="27"/>
+      <c r="L18" s="27"/>
+      <c r="M18" s="27"/>
+      <c r="N18" s="27"/>
+      <c r="O18" s="27"/>
+      <c r="P18" s="27"/>
+      <c r="Q18" s="27"/>
+      <c r="R18" s="27"/>
+      <c r="S18" s="27"/>
+      <c r="T18" s="27"/>
     </row>
     <row r="19" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A19" s="17"/>
@@ -6016,14 +6279,17 @@
     </row>
   </sheetData>
   <dataConsolidate/>
-  <mergeCells count="7">
+  <mergeCells count="10">
+    <mergeCell ref="N10:T10"/>
+    <mergeCell ref="N14:T14"/>
+    <mergeCell ref="N18:T18"/>
     <mergeCell ref="A1:T1"/>
-    <mergeCell ref="A10:J10"/>
-    <mergeCell ref="K18:T18"/>
-    <mergeCell ref="A18:J18"/>
-    <mergeCell ref="K10:T10"/>
-    <mergeCell ref="A14:J14"/>
-    <mergeCell ref="K14:T14"/>
+    <mergeCell ref="A10:F10"/>
+    <mergeCell ref="A14:F14"/>
+    <mergeCell ref="A18:F18"/>
+    <mergeCell ref="G10:M10"/>
+    <mergeCell ref="G14:M14"/>
+    <mergeCell ref="G18:M18"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -6032,43 +6298,93 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1041" r:id="rId4" name="_ActiveXWrapper8">
+        <control shapeId="1046" r:id="rId4" name="_ActiveXWrapper13">
           <controlPr defaultSize="0" autoLine="0" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>561975</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>171450</xdr:rowOff>
+                <xdr:col>13</xdr:col>
+                <xdr:colOff>600075</xdr:colOff>
+                <xdr:row>14</xdr:row>
+                <xdr:rowOff>57150</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>10</xdr:col>
-                <xdr:colOff>85725</xdr:colOff>
-                <xdr:row>6</xdr:row>
-                <xdr:rowOff>47625</xdr:rowOff>
+                <xdr:col>16</xdr:col>
+                <xdr:colOff>123825</xdr:colOff>
+                <xdr:row>16</xdr:row>
+                <xdr:rowOff>123825</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1041" r:id="rId4" name="_ActiveXWrapper8"/>
+        <control shapeId="1046" r:id="rId4" name="_ActiveXWrapper13"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1040" r:id="rId6" name="_ActiveXWrapper7">
+        <control shapeId="1045" r:id="rId6" name="_ActiveXWrapper12">
           <controlPr defaultSize="0" autoLine="0" r:id="rId7">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>12</xdr:col>
-                <xdr:colOff>523875</xdr:colOff>
-                <xdr:row>18</xdr:row>
-                <xdr:rowOff>76200</xdr:rowOff>
+                <xdr:col>14</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>10</xdr:row>
+                <xdr:rowOff>66675</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>15</xdr:col>
-                <xdr:colOff>47625</xdr:colOff>
+                <xdr:col>16</xdr:col>
+                <xdr:colOff>133350</xdr:colOff>
+                <xdr:row>12</xdr:row>
+                <xdr:rowOff>133350</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1045" r:id="rId6" name="_ActiveXWrapper12"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1041" r:id="rId8" name="_ActiveXWrapper8">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId9">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>276225</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>180975</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>9</xdr:col>
+                <xdr:colOff>409575</xdr:colOff>
+                <xdr:row>6</xdr:row>
+                <xdr:rowOff>57150</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1041" r:id="rId8" name="_ActiveXWrapper8"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1040" r:id="rId10" name="_ActiveXWrapper7">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId11">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>9</xdr:col>
+                <xdr:colOff>542925</xdr:colOff>
+                <xdr:row>18</xdr:row>
+                <xdr:rowOff>85725</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>12</xdr:col>
+                <xdr:colOff>66675</xdr:colOff>
                 <xdr:row>20</xdr:row>
                 <xdr:rowOff>142875</xdr:rowOff>
               </to>
@@ -6077,23 +6393,23 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1040" r:id="rId6" name="_ActiveXWrapper7"/>
+        <control shapeId="1040" r:id="rId10" name="_ActiveXWrapper7"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1039" r:id="rId8" name="_ActiveXWrapper6">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId9">
+        <control shapeId="1039" r:id="rId12" name="_ActiveXWrapper6">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId13">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>10</xdr:col>
-                <xdr:colOff>180975</xdr:colOff>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>304800</xdr:colOff>
                 <xdr:row>18</xdr:row>
-                <xdr:rowOff>76200</xdr:rowOff>
+                <xdr:rowOff>85725</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>12</xdr:col>
-                <xdr:colOff>314325</xdr:colOff>
+                <xdr:col>9</xdr:col>
+                <xdr:colOff>438150</xdr:colOff>
                 <xdr:row>20</xdr:row>
                 <xdr:rowOff>142875</xdr:rowOff>
               </to>
@@ -6102,38 +6418,38 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1039" r:id="rId8" name="_ActiveXWrapper6"/>
+        <control shapeId="1039" r:id="rId12" name="_ActiveXWrapper6"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1038" r:id="rId10" name="_ActiveXWrapper5">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId11">
+        <control shapeId="1038" r:id="rId14" name="_ActiveXWrapper5">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId15">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>10</xdr:col>
-                <xdr:colOff>171450</xdr:colOff>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>295275</xdr:colOff>
                 <xdr:row>14</xdr:row>
-                <xdr:rowOff>66675</xdr:rowOff>
+                <xdr:rowOff>85725</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>12</xdr:col>
-                <xdr:colOff>304800</xdr:colOff>
+                <xdr:col>9</xdr:col>
+                <xdr:colOff>428625</xdr:colOff>
                 <xdr:row>16</xdr:row>
-                <xdr:rowOff>133350</xdr:rowOff>
+                <xdr:rowOff>152400</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1038" r:id="rId10" name="_ActiveXWrapper5"/>
+        <control shapeId="1038" r:id="rId14" name="_ActiveXWrapper5"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1037" r:id="rId12" name="_ActiveXWrapper4">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId13">
+        <control shapeId="1037" r:id="rId16" name="_ActiveXWrapper4">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId17">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>3</xdr:col>
@@ -6152,13 +6468,13 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1037" r:id="rId12" name="_ActiveXWrapper4"/>
+        <control shapeId="1037" r:id="rId16" name="_ActiveXWrapper4"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1036" r:id="rId14" name="_ActiveXWrapper3">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId15">
+        <control shapeId="1036" r:id="rId18" name="_ActiveXWrapper3">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId19">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
@@ -6177,13 +6493,13 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1036" r:id="rId14" name="_ActiveXWrapper3"/>
+        <control shapeId="1036" r:id="rId18" name="_ActiveXWrapper3"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1035" r:id="rId16" name="_ActiveXWrapper2">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId17">
+        <control shapeId="1035" r:id="rId20" name="_ActiveXWrapper2">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId21">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>3</xdr:col>
@@ -6202,13 +6518,13 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1035" r:id="rId16" name="_ActiveXWrapper2"/>
+        <control shapeId="1035" r:id="rId20" name="_ActiveXWrapper2"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1025" r:id="rId18" name="_ActiveXWrapper1">
-          <controlPr defaultSize="0" autoLine="0" autoPict="0" r:id="rId19">
+        <control shapeId="1025" r:id="rId22" name="_ActiveXWrapper1">
+          <controlPr defaultSize="0" autoLine="0" autoPict="0" r:id="rId23">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
@@ -6227,38 +6543,38 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1025" r:id="rId18" name="_ActiveXWrapper1"/>
+        <control shapeId="1025" r:id="rId22" name="_ActiveXWrapper1"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1042" r:id="rId20" name="_ActiveXWrapper9">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId21">
+        <control shapeId="1042" r:id="rId24" name="_ActiveXWrapper9">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId25">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>10</xdr:col>
-                <xdr:colOff>171450</xdr:colOff>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>295275</xdr:colOff>
                 <xdr:row>10</xdr:row>
-                <xdr:rowOff>38100</xdr:rowOff>
+                <xdr:rowOff>47625</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>12</xdr:col>
-                <xdr:colOff>304800</xdr:colOff>
+                <xdr:col>9</xdr:col>
+                <xdr:colOff>428625</xdr:colOff>
                 <xdr:row>12</xdr:row>
-                <xdr:rowOff>104775</xdr:rowOff>
+                <xdr:rowOff>114300</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1042" r:id="rId20" name="_ActiveXWrapper9"/>
+        <control shapeId="1042" r:id="rId24" name="_ActiveXWrapper9"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1043" r:id="rId22" name="_ActiveXWrapper10">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId23">
+        <control shapeId="1043" r:id="rId26" name="_ActiveXWrapper10">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId27">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
@@ -6277,13 +6593,13 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1043" r:id="rId22" name="_ActiveXWrapper10"/>
+        <control shapeId="1043" r:id="rId26" name="_ActiveXWrapper10"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1044" r:id="rId24" name="_ActiveXWrapper11">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId25">
+        <control shapeId="1044" r:id="rId28" name="_ActiveXWrapper11">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId29">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>3</xdr:col>
@@ -6302,7 +6618,7 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1044" r:id="rId24" name="_ActiveXWrapper11"/>
+        <control shapeId="1044" r:id="rId28" name="_ActiveXWrapper11"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>
@@ -6969,12 +7285,324 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A48F37D-DF27-4112-948E-984B6F5D08FB}">
+  <sheetPr codeName="Planilha12"/>
+  <dimension ref="A1:L9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="97" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.5703125" customWidth="1"/>
+    <col min="2" max="2" width="17" style="8" customWidth="1"/>
+    <col min="3" max="3" width="19.42578125" customWidth="1"/>
+    <col min="4" max="4" width="24.42578125" customWidth="1"/>
+    <col min="5" max="5" width="23.28515625" customWidth="1"/>
+    <col min="6" max="6" width="16.28515625" customWidth="1"/>
+    <col min="7" max="7" width="12.85546875" customWidth="1"/>
+    <col min="8" max="8" width="18.7109375" style="8" customWidth="1"/>
+    <col min="9" max="9" width="15.85546875" customWidth="1"/>
+    <col min="10" max="10" width="16.7109375" customWidth="1"/>
+    <col min="11" max="11" width="19.42578125" customWidth="1"/>
+    <col min="12" max="12" width="18" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" hidden="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1" s="17"/>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
+      <c r="H1" s="17"/>
+      <c r="I1" s="17"/>
+      <c r="J1" s="17"/>
+      <c r="K1" s="17"/>
+      <c r="L1" s="17"/>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" s="17"/>
+      <c r="B2" s="17"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="17"/>
+      <c r="G2" s="17"/>
+      <c r="H2" s="17"/>
+      <c r="I2" s="17"/>
+      <c r="J2" s="17"/>
+      <c r="K2" s="17"/>
+      <c r="L2" s="17"/>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" s="17"/>
+      <c r="B3" s="17"/>
+      <c r="C3" s="17"/>
+      <c r="D3" s="17"/>
+      <c r="E3" s="17"/>
+      <c r="F3" s="17"/>
+      <c r="G3" s="17"/>
+      <c r="H3" s="17"/>
+      <c r="I3" s="17"/>
+      <c r="J3" s="17"/>
+      <c r="K3" s="17"/>
+      <c r="L3" s="17"/>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" s="17"/>
+      <c r="B4" s="17"/>
+      <c r="C4" s="17"/>
+      <c r="D4" s="17"/>
+      <c r="E4" s="17"/>
+      <c r="F4" s="17"/>
+      <c r="G4" s="17"/>
+      <c r="H4" s="17"/>
+      <c r="I4" s="17"/>
+      <c r="J4" s="17"/>
+      <c r="K4" s="17"/>
+      <c r="L4" s="17"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" s="17"/>
+      <c r="B5" s="17"/>
+      <c r="C5" s="17"/>
+      <c r="D5" s="17"/>
+      <c r="E5" s="17"/>
+      <c r="F5" s="17"/>
+      <c r="G5" s="17"/>
+      <c r="H5" s="17"/>
+      <c r="I5" s="17"/>
+      <c r="J5" s="17"/>
+      <c r="K5" s="17"/>
+      <c r="L5" s="17"/>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" s="17"/>
+      <c r="B6" s="17"/>
+      <c r="C6" s="17"/>
+      <c r="D6" s="17"/>
+      <c r="E6" s="17"/>
+      <c r="F6" s="17"/>
+      <c r="G6" s="17"/>
+      <c r="H6" s="17"/>
+      <c r="I6" s="17"/>
+      <c r="J6" s="17"/>
+      <c r="K6" s="17"/>
+      <c r="L6" s="17"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" s="17"/>
+      <c r="B7" s="17"/>
+      <c r="C7" s="17"/>
+      <c r="D7" s="17"/>
+      <c r="E7" s="17"/>
+      <c r="F7" s="17"/>
+      <c r="G7" s="17"/>
+      <c r="H7" s="17"/>
+      <c r="I7" s="17"/>
+      <c r="J7" s="17"/>
+      <c r="K7" s="17"/>
+      <c r="L7" s="17"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" s="17"/>
+      <c r="B8" s="17"/>
+      <c r="C8" s="17"/>
+      <c r="D8" s="17"/>
+      <c r="E8" s="17"/>
+      <c r="F8" s="17"/>
+      <c r="G8" s="17"/>
+      <c r="H8" s="17"/>
+      <c r="I8" s="17"/>
+      <c r="J8" s="17"/>
+      <c r="K8" s="17"/>
+      <c r="L8" s="17"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="B9" s="19" t="s">
+        <v>72</v>
+      </c>
+      <c r="C9" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="D9" s="20" t="s">
+        <v>70</v>
+      </c>
+      <c r="E9" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="F9" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="G9" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="H9" s="20" t="s">
+        <v>74</v>
+      </c>
+      <c r="I9" s="20" t="s">
+        <v>75</v>
+      </c>
+      <c r="J9" s="20" t="s">
+        <v>76</v>
+      </c>
+      <c r="K9" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="L9" s="20" t="s">
+        <v>78</v>
+      </c>
+    </row>
+  </sheetData>
+  <dataConsolidate/>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
+  <controls>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="37896" r:id="rId4" name="_ActiveXWrapper5">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>838200</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>95250</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>647700</xdr:colOff>
+                <xdr:row>7</xdr:row>
+                <xdr:rowOff>76200</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="37896" r:id="rId4" name="_ActiveXWrapper5"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="37895" r:id="rId6" name="_ActiveXWrapper4">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId7">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>781050</xdr:colOff>
+                <xdr:row>0</xdr:row>
+                <xdr:rowOff>180975</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>209550</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>66675</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="37895" r:id="rId6" name="_ActiveXWrapper4"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="37894" r:id="rId8" name="_ActiveXWrapper3">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId9">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>990600</xdr:colOff>
+                <xdr:row>0</xdr:row>
+                <xdr:rowOff>171450</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>733425</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>57150</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="37894" r:id="rId8" name="_ActiveXWrapper3"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="37893" r:id="rId10" name="_ActiveXWrapper2">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId11">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>838200</xdr:colOff>
+                <xdr:row>0</xdr:row>
+                <xdr:rowOff>171450</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>657225</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>57150</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="37893" r:id="rId10" name="_ActiveXWrapper2"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="37892" r:id="rId12" name="_ActiveXWrapper1">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId13">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>990600</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>104775</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>733425</xdr:colOff>
+                <xdr:row>7</xdr:row>
+                <xdr:rowOff>76200</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="37892" r:id="rId12" name="_ActiveXWrapper1"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+  </controls>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7625DE08-E0FE-46F4-9267-5999D70A38A3}">
   <sheetPr codeName="Planilha11"/>
-  <dimension ref="A1:H9"/>
+  <dimension ref="A1:J9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView zoomScale="99" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6987,10 +7615,11 @@
     <col min="6" max="6" width="16.42578125" customWidth="1"/>
     <col min="7" max="7" width="15.5703125" customWidth="1"/>
     <col min="8" max="8" width="17.7109375" customWidth="1"/>
-    <col min="9" max="16384" width="9.140625" hidden="1"/>
+    <col min="9" max="10" width="9.140625" style="8" hidden="1" customWidth="1"/>
+    <col min="11" max="16384" width="9.140625" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="17"/>
       <c r="B1" s="17"/>
       <c r="C1" s="17"/>
@@ -6999,8 +7628,10 @@
       <c r="F1" s="17"/>
       <c r="G1" s="17"/>
       <c r="H1" s="17"/>
+      <c r="I1"/>
+      <c r="J1"/>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="17"/>
       <c r="B2" s="17"/>
       <c r="C2" s="17"/>
@@ -7009,8 +7640,10 @@
       <c r="F2" s="17"/>
       <c r="G2" s="17"/>
       <c r="H2" s="17"/>
+      <c r="I2"/>
+      <c r="J2"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="17"/>
       <c r="B3" s="17"/>
       <c r="C3" s="17"/>
@@ -7019,8 +7652,10 @@
       <c r="F3" s="17"/>
       <c r="G3" s="17"/>
       <c r="H3" s="17"/>
+      <c r="I3"/>
+      <c r="J3"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="17"/>
       <c r="B4" s="17"/>
       <c r="C4" s="17"/>
@@ -7029,8 +7664,10 @@
       <c r="F4" s="17"/>
       <c r="G4" s="17"/>
       <c r="H4" s="17"/>
+      <c r="I4"/>
+      <c r="J4"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="17"/>
       <c r="B5" s="17"/>
       <c r="C5" s="17"/>
@@ -7039,8 +7676,10 @@
       <c r="F5" s="17"/>
       <c r="G5" s="17"/>
       <c r="H5" s="17"/>
+      <c r="I5"/>
+      <c r="J5"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="17"/>
       <c r="B6" s="17"/>
       <c r="C6" s="17"/>
@@ -7049,8 +7688,10 @@
       <c r="F6" s="17"/>
       <c r="G6" s="17"/>
       <c r="H6" s="17"/>
+      <c r="I6"/>
+      <c r="J6"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="17"/>
       <c r="B7" s="17"/>
       <c r="C7" s="17"/>
@@ -7058,9 +7699,10 @@
       <c r="E7" s="17"/>
       <c r="F7" s="17"/>
       <c r="G7" s="17"/>
-      <c r="H7" s="17"/>
+      <c r="I7"/>
+      <c r="J7"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="17"/>
       <c r="B8" s="17"/>
       <c r="C8" s="17"/>
@@ -7069,25 +7711,27 @@
       <c r="F8" s="17"/>
       <c r="G8" s="17"/>
       <c r="H8" s="17"/>
+      <c r="I8"/>
+      <c r="J8"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="19" t="s">
         <v>44</v>
       </c>
       <c r="B9" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="C9" s="13" t="s">
         <v>70</v>
-      </c>
-      <c r="C9" s="13" t="s">
-        <v>71</v>
       </c>
       <c r="D9" s="20" t="s">
         <v>3</v>
       </c>
       <c r="E9" s="15" t="s">
-        <v>72</v>
+        <v>1</v>
       </c>
       <c r="F9" s="14" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="G9" s="14" t="s">
         <v>1</v>
@@ -7110,13 +7754,13 @@
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>5</xdr:col>
-                <xdr:colOff>133350</xdr:colOff>
+                <xdr:colOff>409575</xdr:colOff>
                 <xdr:row>1</xdr:row>
                 <xdr:rowOff>38100</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>6</xdr:col>
-                <xdr:colOff>200025</xdr:colOff>
+                <xdr:colOff>476250</xdr:colOff>
                 <xdr:row>4</xdr:row>
                 <xdr:rowOff>19050</xdr:rowOff>
               </to>
@@ -7135,15 +7779,15 @@
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>2</xdr:col>
-                <xdr:colOff>933450</xdr:colOff>
+                <xdr:colOff>1200150</xdr:colOff>
                 <xdr:row>1</xdr:row>
-                <xdr:rowOff>38100</xdr:rowOff>
+                <xdr:rowOff>57150</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>809625</xdr:colOff>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>123825</xdr:colOff>
                 <xdr:row>4</xdr:row>
-                <xdr:rowOff>19050</xdr:rowOff>
+                <xdr:rowOff>38100</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
@@ -7159,16 +7803,16 @@
           <controlPr defaultSize="0" autoLine="0" r:id="rId9">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>895350</xdr:colOff>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>228600</xdr:colOff>
                 <xdr:row>1</xdr:row>
-                <xdr:rowOff>38100</xdr:rowOff>
+                <xdr:rowOff>47625</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>5</xdr:col>
-                <xdr:colOff>47625</xdr:colOff>
+                <xdr:colOff>333375</xdr:colOff>
                 <xdr:row>4</xdr:row>
-                <xdr:rowOff>19050</xdr:rowOff>
+                <xdr:rowOff>28575</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
@@ -7180,265 +7824,27 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="28674" r:id="rId10" name="_ActiveXWrapper2">
+        <control shapeId="28679" r:id="rId10" name="_ActiveXWrapper11">
           <controlPr defaultSize="0" autoLine="0" r:id="rId11">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>2</xdr:col>
-                <xdr:colOff>933450</xdr:colOff>
+                <xdr:colOff>1190625</xdr:colOff>
                 <xdr:row>4</xdr:row>
-                <xdr:rowOff>76200</xdr:rowOff>
+                <xdr:rowOff>123825</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>809625</xdr:colOff>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>114300</xdr:colOff>
                 <xdr:row>7</xdr:row>
-                <xdr:rowOff>57150</xdr:rowOff>
+                <xdr:rowOff>104775</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="28674" r:id="rId10" name="_ActiveXWrapper2"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-  </controls>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A48F37D-DF27-4112-948E-984B6F5D08FB}">
-  <sheetPr codeName="Planilha12"/>
-  <dimension ref="A1:H9"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="13.5703125" customWidth="1"/>
-    <col min="2" max="2" width="17" customWidth="1"/>
-    <col min="3" max="3" width="19.42578125" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" customWidth="1"/>
-    <col min="6" max="6" width="16.28515625" customWidth="1"/>
-    <col min="7" max="7" width="12.85546875" customWidth="1"/>
-    <col min="8" max="8" width="18.7109375" customWidth="1"/>
-    <col min="9" max="16384" width="9.140625" hidden="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="17"/>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17"/>
-      <c r="H1" s="17"/>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="17"/>
-      <c r="B2" s="17"/>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
-      <c r="E2" s="17"/>
-      <c r="F2" s="17"/>
-      <c r="G2" s="17"/>
-      <c r="H2" s="17"/>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="17"/>
-      <c r="B3" s="17"/>
-      <c r="C3" s="17"/>
-      <c r="D3" s="17"/>
-      <c r="E3" s="17"/>
-      <c r="F3" s="17"/>
-      <c r="G3" s="17"/>
-      <c r="H3" s="17"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="17"/>
-      <c r="B4" s="17"/>
-      <c r="C4" s="17"/>
-      <c r="D4" s="17"/>
-      <c r="E4" s="17"/>
-      <c r="F4" s="17"/>
-      <c r="G4" s="17"/>
-      <c r="H4" s="17"/>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="17"/>
-      <c r="B5" s="17"/>
-      <c r="C5" s="17"/>
-      <c r="D5" s="17"/>
-      <c r="E5" s="17"/>
-      <c r="F5" s="17"/>
-      <c r="G5" s="17"/>
-      <c r="H5" s="17"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="17"/>
-      <c r="B6" s="17"/>
-      <c r="C6" s="17"/>
-      <c r="D6" s="17"/>
-      <c r="E6" s="17"/>
-      <c r="F6" s="17"/>
-      <c r="G6" s="17"/>
-      <c r="H6" s="17"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="17"/>
-      <c r="B7" s="17"/>
-      <c r="C7" s="17"/>
-      <c r="D7" s="17"/>
-      <c r="E7" s="17"/>
-      <c r="F7" s="17"/>
-      <c r="G7" s="17"/>
-      <c r="H7" s="17"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="17"/>
-      <c r="B8" s="17"/>
-      <c r="C8" s="17"/>
-      <c r="D8" s="17"/>
-      <c r="E8" s="17"/>
-      <c r="F8" s="17"/>
-      <c r="G8" s="17"/>
-      <c r="H8" s="17"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="19" t="s">
-        <v>44</v>
-      </c>
-      <c r="B9" s="19" t="s">
-        <v>70</v>
-      </c>
-      <c r="C9" s="13" t="s">
-        <v>71</v>
-      </c>
-      <c r="D9" s="20" t="s">
-        <v>3</v>
-      </c>
-      <c r="E9" s="15" t="s">
-        <v>72</v>
-      </c>
-      <c r="F9" s="14" t="s">
-        <v>73</v>
-      </c>
-      <c r="G9" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="H9" s="20" t="s">
-        <v>24</v>
-      </c>
-    </row>
-  </sheetData>
-  <dataConsolidate/>
-  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-  <legacyDrawing r:id="rId3"/>
-  <controls>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="37895" r:id="rId4" name="_ActiveXWrapper4">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId5">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>457200</xdr:colOff>
-                <xdr:row>0</xdr:row>
-                <xdr:rowOff>152400</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>533400</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>133350</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="37895" r:id="rId4" name="_ActiveXWrapper4"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="37894" r:id="rId6" name="_ActiveXWrapper3">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId7">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>1219200</xdr:colOff>
-                <xdr:row>0</xdr:row>
-                <xdr:rowOff>152400</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>104775</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>133350</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="37894" r:id="rId6" name="_ActiveXWrapper3"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="37893" r:id="rId8" name="_ActiveXWrapper2">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId9">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>190500</xdr:colOff>
-                <xdr:row>0</xdr:row>
-                <xdr:rowOff>152400</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>371475</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>133350</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="37893" r:id="rId8" name="_ActiveXWrapper2"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="37892" r:id="rId10" name="_ActiveXWrapper1">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId11">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>1219200</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>38100</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>104775</xdr:colOff>
-                <xdr:row>6</xdr:row>
-                <xdr:rowOff>180975</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="37892" r:id="rId10" name="_ActiveXWrapper1"/>
+        <control shapeId="28679" r:id="rId10" name="_ActiveXWrapper11"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>
@@ -8504,7 +8910,7 @@
 </file>
 
 <file path=vstoDataStore/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{943977F9-1A73-4843-812F-F7580A3F3B29}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{40C1EA89-EDFE-432F-B69E-EEB5D176A7AD}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>